--- a/qualitative codes/codes.xlsx
+++ b/qualitative codes/codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyug1/Ethical-Document/qualitative codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2A3F17-62CF-394B-8E1B-C2200380DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0822E3F4-AB15-E94F-94AE-8EC17D04D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{1206D161-4B1A-EA45-8CE4-4A85740125EE}"/>
+    <workbookView xWindow="20780" yWindow="5900" windowWidth="17620" windowHeight="15700" xr2:uid="{D2ED9F84-69A8-C34D-9200-3A7C563EE62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Code ID</t>
   </si>
@@ -92,12 +92,6 @@
     <t>possibility of model bias influencing fine-tuned versions.</t>
   </si>
   <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>training dataset containing low quality data</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
@@ -107,7 +101,7 @@
     <t>C21</t>
   </si>
   <si>
-    <t>potential for model's use in future ethical research endeavors</t>
+    <t>potential for model's use in future ethical research endeavours</t>
   </si>
   <si>
     <t>C22</t>
@@ -221,7 +215,7 @@
     <t>C57</t>
   </si>
   <si>
-    <t>reference to other model card or data sheet document.</t>
+    <t>reference to their model card or data sheet document.</t>
   </si>
   <si>
     <t>C59</t>
@@ -275,7 +269,7 @@
     <t>C71</t>
   </si>
   <si>
-    <t>Malicious use of the model to exploit to spread disinformation or deception.</t>
+    <t>Malicious use of the model to spread disinformation or deception.</t>
   </si>
   <si>
     <t>C72</t>
@@ -419,7 +413,7 @@
     <t>C111</t>
   </si>
   <si>
-    <t>model conatining age bias</t>
+    <t>model containing age bias</t>
   </si>
   <si>
     <t>C112</t>
@@ -503,7 +497,7 @@
     <t>C125</t>
   </si>
   <si>
-    <t>trianing dataset containing biased contents.</t>
+    <t>training dataset containing biased contents.</t>
   </si>
   <si>
     <t>C127</t>
@@ -533,7 +527,7 @@
     <t>C131</t>
   </si>
   <si>
-    <t>reference to third-party model cards</t>
+    <t>reference to third-party model cards or datasheet</t>
   </si>
 </sst>
 </file>
@@ -924,16 +918,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BA7822-320D-3E49-AB5C-554124B83962}">
-  <dimension ref="A1:B83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF06E85-4A9E-CA4A-9DC2-A3274E96321C}">
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -949,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,7 +970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,7 +986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1045,23 +1042,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1069,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1109,7 +1106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1117,7 +1114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1125,23 +1122,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1189,7 +1186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1229,7 +1226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1245,7 +1242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1277,7 +1274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1285,7 +1282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1293,7 +1290,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1317,7 +1314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1453,7 +1450,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1469,7 +1466,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1493,7 +1490,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1581,20 +1578,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/qualitative codes/codes.xlsx
+++ b/qualitative codes/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyug1/Ethical-Document/qualitative codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0822E3F4-AB15-E94F-94AE-8EC17D04D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C8740-3055-EF4F-B260-3576E85F5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5900" windowWidth="17620" windowHeight="15700" xr2:uid="{D2ED9F84-69A8-C34D-9200-3A7C563EE62B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{D2ED9F84-69A8-C34D-9200-3A7C563EE62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>C39</t>
   </si>
   <si>
-    <t>possibility of the training dataset or human feedback reflecting values of the annotators rather than the entire population.</t>
-  </si>
-  <si>
     <t>C40</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>C112</t>
   </si>
   <si>
-    <t>training dataset containing mostly one certain language or style of a language</t>
-  </si>
-  <si>
     <t>C113</t>
   </si>
   <si>
@@ -473,33 +467,18 @@
     <t>C121</t>
   </si>
   <si>
-    <t>training dataset containing generic inappropriate contents</t>
-  </si>
-  <si>
     <t>C122</t>
   </si>
   <si>
-    <t>training dataset containing sexual contents.</t>
-  </si>
-  <si>
     <t>C123</t>
   </si>
   <si>
-    <t>training dataset containing violent contents.</t>
-  </si>
-  <si>
     <t>C124</t>
   </si>
   <si>
-    <t>training dataset containing offensive contents.</t>
-  </si>
-  <si>
     <t>C125</t>
   </si>
   <si>
-    <t>training dataset containing biased contents.</t>
-  </si>
-  <si>
     <t>C127</t>
   </si>
   <si>
@@ -528,6 +507,27 @@
   </si>
   <si>
     <t>reference to third-party model cards or datasheet</t>
+  </si>
+  <si>
+    <t>Possibility of biased annotation</t>
+  </si>
+  <si>
+    <t>General comments about inappropriate content in training data</t>
+  </si>
+  <si>
+    <t>Possibility of sexual content in training data</t>
+  </si>
+  <si>
+    <t>Possibility of violent content in training data</t>
+  </si>
+  <si>
+    <t>Possibility of offensive content in training data</t>
+  </si>
+  <si>
+    <t>Possibility of biased content in training data</t>
+  </si>
+  <si>
+    <t>One domainant language in training data</t>
   </si>
 </sst>
 </file>
@@ -921,12 +921,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF06E85-4A9E-CA4A-9DC2-A3274E96321C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1090,500 +1091,500 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/qualitative codes/codes.xlsx
+++ b/qualitative codes/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyug1/Ethical-Document/qualitative codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C8740-3055-EF4F-B260-3576E85F5E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1198D7-2218-1E49-88E3-2257755B83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{D2ED9F84-69A8-C34D-9200-3A7C563EE62B}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>C31</t>
   </si>
   <si>
-    <t>training dataset containing sensitive or private information.</t>
-  </si>
-  <si>
     <t>C32</t>
   </si>
   <si>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>One domainant language in training data</t>
+  </si>
+  <si>
+    <t>Possibility of sensitive or private content in training data</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF06E85-4A9E-CA4A-9DC2-A3274E96321C}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,535 +1056,535 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
